--- a/rp/Excel/ShareId.xlsx
+++ b/rp/Excel/ShareId.xlsx
@@ -43,7 +43,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -414,8 +414,30 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row customHeight="true" ht="21" r="1">
       <c r="A1" s="1" t="str">
         <v>int</v>
       </c>
@@ -441,7 +463,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2">
+    <row customHeight="true" ht="21" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -467,7 +489,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row customHeight="true" ht="19" r="3">
+    <row customHeight="true" ht="21" r="3">
       <c r="A3" s="1" t="str">
         <v>唯一ID</v>
       </c>
@@ -493,7 +515,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4">
+    <row customHeight="true" ht="21" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -515,14 +537,16 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5">
+    <row customHeight="true" ht="21" r="5">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="str">
         <v>1022S89K</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="str">
+        <v>电锯人</v>
+      </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -541,14 +565,16 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6">
+    <row customHeight="true" ht="21" r="6">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="1" t="str">
         <v>1022S8X6</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="str">
+        <v>黑爵士</v>
+      </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -567,14 +593,16 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7">
+    <row customHeight="true" ht="21" r="7">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="str">
         <v>1022S7KJ</v>
       </c>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="str">
+        <v>白-爵士</v>
+      </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -593,14 +621,16 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8">
+    <row customHeight="true" ht="21" r="8">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="1" t="str">
         <v>1022S7KD</v>
       </c>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="str">
+        <v>鬼</v>
+      </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -619,14 +649,16 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9">
+    <row customHeight="true" ht="21" r="9">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="1" t="str">
         <v>1022S7K9</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="str">
+        <v>青蛙</v>
+      </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -645,14 +677,16 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10">
+    <row customHeight="true" ht="21" r="10">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="str">
         <v>1022S88E</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="str">
+        <v>恐龙</v>
+      </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -671,14 +705,16 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11">
+    <row customHeight="true" ht="21" r="11">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="str">
         <v>1022S7IE</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1" t="str">
+        <v>射手-</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -697,14 +733,16 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12">
+    <row customHeight="true" ht="21" r="12">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="1" t="str">
         <v>1022S861</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1" t="str">
+        <v>繁星</v>
+      </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -723,14 +761,16 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13">
+    <row customHeight="true" ht="21" r="13">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="1" t="str">
         <v>1022S85O</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1" t="str">
+        <v>竹节虫-女-黑</v>
+      </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -749,14 +789,16 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14">
+    <row customHeight="true" ht="21" r="14">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="str">
         <v>1022S85E</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1" t="str">
+        <v>竹节虫-女-黑</v>
+      </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -775,14 +817,16 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15">
+    <row customHeight="true" ht="21" r="15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="1" t="str">
         <v>1022S8QF</v>
       </c>
-      <c r="C15" s="1"/>
+      <c r="C15" s="1" t="str">
+        <v>竹节虫-男-黑</v>
+      </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -801,14 +845,16 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16">
+    <row customHeight="true" ht="21" r="16">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="str">
         <v>1022S82R</v>
       </c>
-      <c r="C16" s="1"/>
+      <c r="C16" s="1" t="str">
+        <v>竹节虫-女-白</v>
+      </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -827,14 +873,16 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17">
+    <row customHeight="true" ht="21" r="17">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="1" t="str">
         <v>1022S8R5</v>
       </c>
-      <c r="C17" s="1"/>
+      <c r="C17" s="1" t="str">
+        <v>挨个子-女</v>
+      </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -853,14 +901,16 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18">
+    <row customHeight="true" ht="21" r="18">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="1" t="str">
         <v>1022S8RC</v>
       </c>
-      <c r="C18" s="1"/>
+      <c r="C18" s="1" t="str">
+        <v>竹节虫-女-黑</v>
+      </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -879,14 +929,16 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19">
+    <row customHeight="true" ht="21" r="19">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="1" t="str">
         <v>1022S8RL</v>
       </c>
-      <c r="C19" s="1"/>
+      <c r="C19" s="1" t="str">
+        <v>新手礼包-矮个子</v>
+      </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -905,14 +957,16 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20">
+    <row customHeight="true" ht="21" r="20">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="1" t="str">
         <v>1022S7FQ</v>
       </c>
-      <c r="C20" s="1"/>
+      <c r="C20" s="1" t="str">
+        <v>挨个子-女白</v>
+      </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -931,14 +985,16 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21">
+    <row customHeight="true" ht="21" r="21">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="1" t="str">
         <v>1022S8RW</v>
       </c>
-      <c r="C21" s="1"/>
+      <c r="C21" s="1" t="str">
+        <v>挨个子-女白</v>
+      </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -957,14 +1013,16 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22">
+    <row customHeight="true" ht="21" r="22">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="1" t="str">
         <v>1022S8SB</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="1" t="str">
+        <v>竹节虫-女-白</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -983,14 +1041,16 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23">
+    <row customHeight="true" ht="21" r="23">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="str">
         <v>1022S7G7</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="1" t="str">
+        <v>挨个子-女黑</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1009,14 +1069,16 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24">
+    <row customHeight="true" ht="21" r="24">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="str">
         <v>1022S84B</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="1" t="str">
+        <v>竹节虫-女-白</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1035,14 +1097,16 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25">
+    <row customHeight="true" ht="21" r="25">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="str">
         <v>1022S7GF</v>
       </c>
-      <c r="C25" s="1"/>
+      <c r="C25" s="1" t="str">
+        <v>挨个子-女黑</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1061,14 +1125,16 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26">
+    <row customHeight="true" ht="21" r="26">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="str">
         <v>1022S7GT</v>
       </c>
-      <c r="C26" s="1"/>
+      <c r="C26" s="1" t="str">
+        <v>兔子帽子女</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1087,14 +1153,16 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27">
+    <row customHeight="true" ht="21" r="27">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="str">
         <v>1022S8T2</v>
       </c>
-      <c r="C27" s="1"/>
+      <c r="C27" s="1" t="str">
+        <v>棺材女红</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1113,14 +1181,16 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28">
+    <row customHeight="true" ht="21" r="28">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="str">
         <v>1022S855</v>
       </c>
-      <c r="C28" s="1"/>
+      <c r="C28" s="1" t="str">
+        <v>挨个子-女白</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1139,14 +1209,16 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29">
+    <row customHeight="true" ht="21" r="29">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="str">
-        <v>10004K5Z</v>
-      </c>
-      <c r="C29" s="1"/>
+        <v>102383MF</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <v>圣诞-女</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1165,14 +1237,16 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30">
+    <row customHeight="true" ht="21" r="30">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="str">
-        <v>10004K60</v>
-      </c>
-      <c r="C30" s="1"/>
+        <v>102383TY</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <v>圣诞男</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1192,9 +1266,15 @@
       <c r="T30" s="1"/>
     </row>
     <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="1">
+        <v>27</v>
+      </c>
+      <c r="B31" s="1" t="str">
+        <v>102382PL</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <v>女</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -4953,8 +5033,645 @@
       <c r="S201" s="1"/>
       <c r="T201" s="1"/>
     </row>
+    <row r="202">
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1"/>
+      <c r="B203" s="1"/>
+      <c r="C203" s="1"/>
+      <c r="D203" s="1"/>
+      <c r="E203" s="1"/>
+      <c r="F203" s="1"/>
+      <c r="G203" s="1"/>
+      <c r="H203" s="1"/>
+      <c r="I203" s="1"/>
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+      <c r="O203" s="1"/>
+      <c r="P203" s="1"/>
+      <c r="Q203" s="1"/>
+      <c r="R203" s="1"/>
+      <c r="S203" s="1"/>
+      <c r="T203" s="1"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1"/>
+      <c r="B204" s="1"/>
+      <c r="C204" s="1"/>
+      <c r="D204" s="1"/>
+      <c r="E204" s="1"/>
+      <c r="F204" s="1"/>
+      <c r="G204" s="1"/>
+      <c r="H204" s="1"/>
+      <c r="I204" s="1"/>
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+      <c r="O204" s="1"/>
+      <c r="P204" s="1"/>
+      <c r="Q204" s="1"/>
+      <c r="R204" s="1"/>
+      <c r="S204" s="1"/>
+      <c r="T204" s="1"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1"/>
+      <c r="B205" s="1"/>
+      <c r="C205" s="1"/>
+      <c r="D205" s="1"/>
+      <c r="E205" s="1"/>
+      <c r="F205" s="1"/>
+      <c r="G205" s="1"/>
+      <c r="H205" s="1"/>
+      <c r="I205" s="1"/>
+      <c r="J205" s="1"/>
+      <c r="K205" s="1"/>
+      <c r="L205" s="1"/>
+      <c r="M205" s="1"/>
+      <c r="N205" s="1"/>
+      <c r="O205" s="1"/>
+      <c r="P205" s="1"/>
+      <c r="Q205" s="1"/>
+      <c r="R205" s="1"/>
+      <c r="S205" s="1"/>
+      <c r="T205" s="1"/>
+    </row>
+    <row r="206">
+      <c r="A206" s="1"/>
+      <c r="B206" s="1"/>
+      <c r="C206" s="1"/>
+      <c r="D206" s="1"/>
+      <c r="E206" s="1"/>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1"/>
+      <c r="H206" s="1"/>
+      <c r="I206" s="1"/>
+      <c r="J206" s="1"/>
+      <c r="K206" s="1"/>
+      <c r="L206" s="1"/>
+      <c r="M206" s="1"/>
+      <c r="N206" s="1"/>
+      <c r="O206" s="1"/>
+      <c r="P206" s="1"/>
+      <c r="Q206" s="1"/>
+      <c r="R206" s="1"/>
+      <c r="S206" s="1"/>
+      <c r="T206" s="1"/>
+    </row>
+    <row r="207">
+      <c r="A207" s="1"/>
+      <c r="B207" s="1"/>
+      <c r="C207" s="1"/>
+      <c r="D207" s="1"/>
+      <c r="E207" s="1"/>
+      <c r="F207" s="1"/>
+      <c r="G207" s="1"/>
+      <c r="H207" s="1"/>
+      <c r="I207" s="1"/>
+      <c r="J207" s="1"/>
+      <c r="K207" s="1"/>
+      <c r="L207" s="1"/>
+      <c r="M207" s="1"/>
+      <c r="N207" s="1"/>
+      <c r="O207" s="1"/>
+      <c r="P207" s="1"/>
+      <c r="Q207" s="1"/>
+      <c r="R207" s="1"/>
+      <c r="S207" s="1"/>
+      <c r="T207" s="1"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="1"/>
+      <c r="B208" s="1"/>
+      <c r="C208" s="1"/>
+      <c r="D208" s="1"/>
+      <c r="E208" s="1"/>
+      <c r="F208" s="1"/>
+      <c r="G208" s="1"/>
+      <c r="H208" s="1"/>
+      <c r="I208" s="1"/>
+      <c r="J208" s="1"/>
+      <c r="K208" s="1"/>
+      <c r="L208" s="1"/>
+      <c r="M208" s="1"/>
+      <c r="N208" s="1"/>
+      <c r="O208" s="1"/>
+      <c r="P208" s="1"/>
+      <c r="Q208" s="1"/>
+      <c r="R208" s="1"/>
+      <c r="S208" s="1"/>
+      <c r="T208" s="1"/>
+    </row>
+    <row r="209">
+      <c r="A209" s="1"/>
+      <c r="B209" s="1"/>
+      <c r="C209" s="1"/>
+      <c r="D209" s="1"/>
+      <c r="E209" s="1"/>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1"/>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
+      <c r="J209" s="1"/>
+      <c r="K209" s="1"/>
+      <c r="L209" s="1"/>
+      <c r="M209" s="1"/>
+      <c r="N209" s="1"/>
+      <c r="O209" s="1"/>
+      <c r="P209" s="1"/>
+      <c r="Q209" s="1"/>
+      <c r="R209" s="1"/>
+      <c r="S209" s="1"/>
+      <c r="T209" s="1"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="1"/>
+      <c r="B210" s="1"/>
+      <c r="C210" s="1"/>
+      <c r="D210" s="1"/>
+      <c r="E210" s="1"/>
+      <c r="F210" s="1"/>
+      <c r="G210" s="1"/>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
+      <c r="J210" s="1"/>
+      <c r="K210" s="1"/>
+      <c r="L210" s="1"/>
+      <c r="M210" s="1"/>
+      <c r="N210" s="1"/>
+      <c r="O210" s="1"/>
+      <c r="P210" s="1"/>
+      <c r="Q210" s="1"/>
+      <c r="R210" s="1"/>
+      <c r="S210" s="1"/>
+      <c r="T210" s="1"/>
+    </row>
+    <row r="211">
+      <c r="A211" s="1"/>
+      <c r="B211" s="1"/>
+      <c r="C211" s="1"/>
+      <c r="D211" s="1"/>
+      <c r="E211" s="1"/>
+      <c r="F211" s="1"/>
+      <c r="G211" s="1"/>
+      <c r="H211" s="1"/>
+      <c r="I211" s="1"/>
+      <c r="J211" s="1"/>
+      <c r="K211" s="1"/>
+      <c r="L211" s="1"/>
+      <c r="M211" s="1"/>
+      <c r="N211" s="1"/>
+      <c r="O211" s="1"/>
+      <c r="P211" s="1"/>
+      <c r="Q211" s="1"/>
+      <c r="R211" s="1"/>
+      <c r="S211" s="1"/>
+      <c r="T211" s="1"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="1"/>
+      <c r="B212" s="1"/>
+      <c r="C212" s="1"/>
+      <c r="D212" s="1"/>
+      <c r="E212" s="1"/>
+      <c r="F212" s="1"/>
+      <c r="G212" s="1"/>
+      <c r="H212" s="1"/>
+      <c r="I212" s="1"/>
+      <c r="J212" s="1"/>
+      <c r="K212" s="1"/>
+      <c r="L212" s="1"/>
+      <c r="M212" s="1"/>
+      <c r="N212" s="1"/>
+      <c r="O212" s="1"/>
+      <c r="P212" s="1"/>
+      <c r="Q212" s="1"/>
+      <c r="R212" s="1"/>
+      <c r="S212" s="1"/>
+      <c r="T212" s="1"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="1"/>
+      <c r="B213" s="1"/>
+      <c r="C213" s="1"/>
+      <c r="D213" s="1"/>
+      <c r="E213" s="1"/>
+      <c r="F213" s="1"/>
+      <c r="G213" s="1"/>
+      <c r="H213" s="1"/>
+      <c r="I213" s="1"/>
+      <c r="J213" s="1"/>
+      <c r="K213" s="1"/>
+      <c r="L213" s="1"/>
+      <c r="M213" s="1"/>
+      <c r="N213" s="1"/>
+      <c r="O213" s="1"/>
+      <c r="P213" s="1"/>
+      <c r="Q213" s="1"/>
+      <c r="R213" s="1"/>
+      <c r="S213" s="1"/>
+      <c r="T213" s="1"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="1"/>
+      <c r="B215" s="1"/>
+      <c r="C215" s="1"/>
+      <c r="D215" s="1"/>
+      <c r="E215" s="1"/>
+      <c r="F215" s="1"/>
+      <c r="G215" s="1"/>
+      <c r="H215" s="1"/>
+      <c r="I215" s="1"/>
+      <c r="J215" s="1"/>
+      <c r="K215" s="1"/>
+      <c r="L215" s="1"/>
+      <c r="M215" s="1"/>
+      <c r="N215" s="1"/>
+      <c r="O215" s="1"/>
+      <c r="P215" s="1"/>
+      <c r="Q215" s="1"/>
+      <c r="R215" s="1"/>
+      <c r="S215" s="1"/>
+      <c r="T215" s="1"/>
+    </row>
+    <row r="216">
+      <c r="A216" s="1"/>
+      <c r="B216" s="1"/>
+      <c r="C216" s="1"/>
+      <c r="D216" s="1"/>
+      <c r="E216" s="1"/>
+      <c r="F216" s="1"/>
+      <c r="G216" s="1"/>
+      <c r="H216" s="1"/>
+      <c r="I216" s="1"/>
+      <c r="J216" s="1"/>
+      <c r="K216" s="1"/>
+      <c r="L216" s="1"/>
+      <c r="M216" s="1"/>
+      <c r="N216" s="1"/>
+      <c r="O216" s="1"/>
+      <c r="P216" s="1"/>
+      <c r="Q216" s="1"/>
+      <c r="R216" s="1"/>
+      <c r="S216" s="1"/>
+      <c r="T216" s="1"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="1"/>
+      <c r="B217" s="1"/>
+      <c r="C217" s="1"/>
+      <c r="D217" s="1"/>
+      <c r="E217" s="1"/>
+      <c r="F217" s="1"/>
+      <c r="G217" s="1"/>
+      <c r="H217" s="1"/>
+      <c r="I217" s="1"/>
+      <c r="J217" s="1"/>
+      <c r="K217" s="1"/>
+      <c r="L217" s="1"/>
+      <c r="M217" s="1"/>
+      <c r="N217" s="1"/>
+      <c r="O217" s="1"/>
+      <c r="P217" s="1"/>
+      <c r="Q217" s="1"/>
+      <c r="R217" s="1"/>
+      <c r="S217" s="1"/>
+      <c r="T217" s="1"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="1"/>
+      <c r="B218" s="1"/>
+      <c r="C218" s="1"/>
+      <c r="D218" s="1"/>
+      <c r="E218" s="1"/>
+      <c r="F218" s="1"/>
+      <c r="G218" s="1"/>
+      <c r="H218" s="1"/>
+      <c r="I218" s="1"/>
+      <c r="J218" s="1"/>
+      <c r="K218" s="1"/>
+      <c r="L218" s="1"/>
+      <c r="M218" s="1"/>
+      <c r="N218" s="1"/>
+      <c r="O218" s="1"/>
+      <c r="P218" s="1"/>
+      <c r="Q218" s="1"/>
+      <c r="R218" s="1"/>
+      <c r="S218" s="1"/>
+      <c r="T218" s="1"/>
+    </row>
+    <row r="219">
+      <c r="A219" s="1"/>
+      <c r="B219" s="1"/>
+      <c r="C219" s="1"/>
+      <c r="D219" s="1"/>
+      <c r="E219" s="1"/>
+      <c r="F219" s="1"/>
+      <c r="G219" s="1"/>
+      <c r="H219" s="1"/>
+      <c r="I219" s="1"/>
+      <c r="J219" s="1"/>
+      <c r="K219" s="1"/>
+      <c r="L219" s="1"/>
+      <c r="M219" s="1"/>
+      <c r="N219" s="1"/>
+      <c r="O219" s="1"/>
+      <c r="P219" s="1"/>
+      <c r="Q219" s="1"/>
+      <c r="R219" s="1"/>
+      <c r="S219" s="1"/>
+      <c r="T219" s="1"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="1"/>
+      <c r="B220" s="1"/>
+      <c r="C220" s="1"/>
+      <c r="D220" s="1"/>
+      <c r="E220" s="1"/>
+      <c r="F220" s="1"/>
+      <c r="G220" s="1"/>
+      <c r="H220" s="1"/>
+      <c r="I220" s="1"/>
+      <c r="J220" s="1"/>
+      <c r="K220" s="1"/>
+      <c r="L220" s="1"/>
+      <c r="M220" s="1"/>
+      <c r="N220" s="1"/>
+      <c r="O220" s="1"/>
+      <c r="P220" s="1"/>
+      <c r="Q220" s="1"/>
+      <c r="R220" s="1"/>
+      <c r="S220" s="1"/>
+      <c r="T220" s="1"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="1"/>
+      <c r="B221" s="1"/>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+      <c r="F221" s="1"/>
+      <c r="G221" s="1"/>
+      <c r="H221" s="1"/>
+      <c r="I221" s="1"/>
+      <c r="J221" s="1"/>
+      <c r="K221" s="1"/>
+      <c r="L221" s="1"/>
+      <c r="M221" s="1"/>
+      <c r="N221" s="1"/>
+      <c r="O221" s="1"/>
+      <c r="P221" s="1"/>
+      <c r="Q221" s="1"/>
+      <c r="R221" s="1"/>
+      <c r="S221" s="1"/>
+      <c r="T221" s="1"/>
+    </row>
+    <row r="222">
+      <c r="A222" s="1"/>
+      <c r="B222" s="1"/>
+      <c r="C222" s="1"/>
+      <c r="D222" s="1"/>
+      <c r="E222" s="1"/>
+      <c r="F222" s="1"/>
+      <c r="G222" s="1"/>
+      <c r="H222" s="1"/>
+      <c r="I222" s="1"/>
+      <c r="J222" s="1"/>
+      <c r="K222" s="1"/>
+      <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
+      <c r="N222" s="1"/>
+      <c r="O222" s="1"/>
+      <c r="P222" s="1"/>
+      <c r="Q222" s="1"/>
+      <c r="R222" s="1"/>
+      <c r="S222" s="1"/>
+      <c r="T222" s="1"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="1"/>
+      <c r="B223" s="1"/>
+      <c r="C223" s="1"/>
+      <c r="D223" s="1"/>
+      <c r="E223" s="1"/>
+      <c r="F223" s="1"/>
+      <c r="G223" s="1"/>
+      <c r="H223" s="1"/>
+      <c r="I223" s="1"/>
+      <c r="J223" s="1"/>
+      <c r="K223" s="1"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+      <c r="N223" s="1"/>
+      <c r="O223" s="1"/>
+      <c r="P223" s="1"/>
+      <c r="Q223" s="1"/>
+      <c r="R223" s="1"/>
+      <c r="S223" s="1"/>
+      <c r="T223" s="1"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="1"/>
+      <c r="B224" s="1"/>
+      <c r="C224" s="1"/>
+      <c r="D224" s="1"/>
+      <c r="E224" s="1"/>
+      <c r="F224" s="1"/>
+      <c r="G224" s="1"/>
+      <c r="H224" s="1"/>
+      <c r="I224" s="1"/>
+      <c r="J224" s="1"/>
+      <c r="K224" s="1"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+      <c r="N224" s="1"/>
+      <c r="O224" s="1"/>
+      <c r="P224" s="1"/>
+      <c r="Q224" s="1"/>
+      <c r="R224" s="1"/>
+      <c r="S224" s="1"/>
+      <c r="T224" s="1"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="1"/>
+      <c r="B225" s="1"/>
+      <c r="C225" s="1"/>
+      <c r="D225" s="1"/>
+      <c r="E225" s="1"/>
+      <c r="F225" s="1"/>
+      <c r="G225" s="1"/>
+      <c r="H225" s="1"/>
+      <c r="I225" s="1"/>
+      <c r="J225" s="1"/>
+      <c r="K225" s="1"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+      <c r="N225" s="1"/>
+      <c r="O225" s="1"/>
+      <c r="P225" s="1"/>
+      <c r="Q225" s="1"/>
+      <c r="R225" s="1"/>
+      <c r="S225" s="1"/>
+      <c r="T225" s="1"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="1"/>
+      <c r="B226" s="1"/>
+      <c r="C226" s="1"/>
+      <c r="D226" s="1"/>
+      <c r="E226" s="1"/>
+      <c r="F226" s="1"/>
+      <c r="G226" s="1"/>
+      <c r="H226" s="1"/>
+      <c r="I226" s="1"/>
+      <c r="J226" s="1"/>
+      <c r="K226" s="1"/>
+      <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
+      <c r="N226" s="1"/>
+      <c r="O226" s="1"/>
+      <c r="P226" s="1"/>
+      <c r="Q226" s="1"/>
+      <c r="R226" s="1"/>
+      <c r="S226" s="1"/>
+      <c r="T226" s="1"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="1"/>
+      <c r="B227" s="1"/>
+      <c r="C227" s="1"/>
+      <c r="D227" s="1"/>
+      <c r="E227" s="1"/>
+      <c r="F227" s="1"/>
+      <c r="G227" s="1"/>
+      <c r="H227" s="1"/>
+      <c r="I227" s="1"/>
+      <c r="J227" s="1"/>
+      <c r="K227" s="1"/>
+      <c r="L227" s="1"/>
+      <c r="M227" s="1"/>
+      <c r="N227" s="1"/>
+      <c r="O227" s="1"/>
+      <c r="P227" s="1"/>
+      <c r="Q227" s="1"/>
+      <c r="R227" s="1"/>
+      <c r="S227" s="1"/>
+      <c r="T227" s="1"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="1"/>
+      <c r="B228" s="1"/>
+      <c r="C228" s="1"/>
+      <c r="D228" s="1"/>
+      <c r="E228" s="1"/>
+      <c r="F228" s="1"/>
+      <c r="G228" s="1"/>
+      <c r="H228" s="1"/>
+      <c r="I228" s="1"/>
+      <c r="J228" s="1"/>
+      <c r="K228" s="1"/>
+      <c r="L228" s="1"/>
+      <c r="M228" s="1"/>
+      <c r="N228" s="1"/>
+      <c r="O228" s="1"/>
+      <c r="P228" s="1"/>
+      <c r="Q228" s="1"/>
+      <c r="R228" s="1"/>
+      <c r="S228" s="1"/>
+      <c r="T228" s="1"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="1"/>
+      <c r="B229" s="1"/>
+      <c r="C229" s="1"/>
+      <c r="D229" s="1"/>
+      <c r="E229" s="1"/>
+      <c r="F229" s="1"/>
+      <c r="G229" s="1"/>
+      <c r="H229" s="1"/>
+      <c r="I229" s="1"/>
+      <c r="J229" s="1"/>
+      <c r="K229" s="1"/>
+      <c r="L229" s="1"/>
+      <c r="M229" s="1"/>
+      <c r="N229" s="1"/>
+      <c r="O229" s="1"/>
+      <c r="P229" s="1"/>
+      <c r="Q229" s="1"/>
+      <c r="R229" s="1"/>
+      <c r="S229" s="1"/>
+      <c r="T229" s="1"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="1"/>
+      <c r="B230" s="1"/>
+      <c r="C230" s="1"/>
+      <c r="D230" s="1"/>
+      <c r="E230" s="1"/>
+      <c r="F230" s="1"/>
+      <c r="G230" s="1"/>
+      <c r="H230" s="1"/>
+      <c r="I230" s="1"/>
+      <c r="J230" s="1"/>
+      <c r="K230" s="1"/>
+      <c r="L230" s="1"/>
+      <c r="M230" s="1"/>
+      <c r="N230" s="1"/>
+      <c r="O230" s="1"/>
+      <c r="P230" s="1"/>
+      <c r="Q230" s="1"/>
+      <c r="R230" s="1"/>
+      <c r="S230" s="1"/>
+      <c r="T230" s="1"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <picture r:id="rId1"/>
 </worksheet>
 </file>